--- a/1-création-contenu-ig/ig/StructureDefinition-tddui-documentreference.xlsx
+++ b/1-création-contenu-ig/ig/StructureDefinition-tddui-documentreference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-30T07:37:14+00:00</t>
+    <t>2025-06-30T09:23:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/1-création-contenu-ig/ig/StructureDefinition-tddui-documentreference.xlsx
+++ b/1-création-contenu-ig/ig/StructureDefinition-tddui-documentreference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-30T09:23:36+00:00</t>
+    <t>2025-06-30T14:21:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/1-création-contenu-ig/ig/StructureDefinition-tddui-documentreference.xlsx
+++ b/1-création-contenu-ig/ig/StructureDefinition-tddui-documentreference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-30T14:21:36+00:00</t>
+    <t>2025-06-30T14:43:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/1-création-contenu-ig/ig/StructureDefinition-tddui-documentreference.xlsx
+++ b/1-création-contenu-ig/ig/StructureDefinition-tddui-documentreference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-30T14:43:51+00:00</t>
+    <t>2025-07-01T08:12:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/1-création-contenu-ig/ig/StructureDefinition-tddui-documentreference.xlsx
+++ b/1-création-contenu-ig/ig/StructureDefinition-tddui-documentreference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-01T08:12:05+00:00</t>
+    <t>2025-07-01T09:53:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
